--- a/Data/gGB1/data.xlsx
+++ b/Data/gGB1/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OOP\ProRF_example\Data\gGB1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8525FE36-47D3-4FAF-A2D5-DA156E3C7211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2EADB8-D8E1-4E3D-B8CC-CEF231C3A9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="1845" windowWidth="21585" windowHeight="11385" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="5505" yWindow="4125" windowWidth="21585" windowHeight="11385" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2911,7 +2911,7 @@
   <dimension ref="A1:C831"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
